--- a/src/data/TestData.xlsx
+++ b/src/data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\Playwright Batch\RC_BATCH_SMOKE_PW\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D30C65C-75A0-492A-BDEE-FECAC0E3B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9518F0-7CE3-45A8-9F6D-A2D40ADA2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>GBC Daily Return File</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>FORD NEW FINANCE INPUT FILE</t>
+  </si>
+  <si>
+    <t>Ford_NF.fc</t>
+  </si>
+  <si>
+    <t>Ford_HappyPath_NF</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -453,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,9 +587,32 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A2 A4:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/TestData.xlsx
+++ b/src/data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\Playwright Batch\RC_BATCH_SMOKE_PW\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\CD_PW_Feb\RCBatch\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9803AA-60F4-4FBC-BD40-A0BC8167BD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A344B-3B46-4EF7-A453-5055ECC58EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>BNS_Comm_NF.xml</t>
+  </si>
+  <si>
+    <t>BNS_Comm_New.xml</t>
+  </si>
+  <si>
+    <t>BNS_Comm_Discharge.xml</t>
+  </si>
+  <si>
+    <t>BNS_COMM_DischargeHappyPath</t>
   </si>
 </sst>
 </file>
@@ -193,7 +202,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -500,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,15 +674,47 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A1:A2 A5:A1048576">
+  <conditionalFormatting sqref="A1:A2 A6:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/TestData.xlsx
+++ b/src/data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RC-BatchFile-Automation Folder\RCAutomation-16Jan2026\RC-Smoke\RCBatch\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\RC_Partial\RCBatch\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C458043E-278E-48C4-A0CC-0415EA29ED7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104980C-A360-459A-ACC0-8952D43EEC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -171,6 +171,27 @@
   </si>
   <si>
     <t>AmendmentFileDescription</t>
+  </si>
+  <si>
+    <t>TDAF</t>
+  </si>
+  <si>
+    <t>TDAF Daily Input XIF File</t>
+  </si>
+  <si>
+    <t>TDAF_Renewal</t>
+  </si>
+  <si>
+    <t>TDAF Daily Input Renewal CSV File</t>
+  </si>
+  <si>
+    <t>TDAF_HappyPath_NF</t>
+  </si>
+  <si>
+    <t>TDAF_NF</t>
+  </si>
+  <si>
+    <t>TDAF Daily NF Output XML File</t>
   </si>
 </sst>
 </file>
@@ -220,7 +241,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -537,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,18 +817,50 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A1:A2 A8:A1048576">
+  <conditionalFormatting sqref="A1:A2 A9:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5:A7">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/TestData.xlsx
+++ b/src/data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\RC_Partial\RCBatch\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\RC_Partial\RC-Batch-Partial-Regression\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104980C-A360-459A-ACC0-8952D43EEC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83D31C-0DA9-4826-83D6-ACB4FE3C791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -179,9 +179,6 @@
     <t>TDAF Daily Input XIF File</t>
   </si>
   <si>
-    <t>TDAF_Renewal</t>
-  </si>
-  <si>
     <t>TDAF Daily Input Renewal CSV File</t>
   </si>
   <si>
@@ -191,7 +188,10 @@
     <t>TDAF_NF</t>
   </si>
   <si>
-    <t>TDAF Daily NF Output XML File</t>
+    <t>TDAF_Renewal.csv</t>
+  </si>
+  <si>
+    <t>TDAF_HappyPath_Renewal</t>
   </si>
 </sst>
 </file>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +819,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -831,24 +831,41 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
         <v>46</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A1:A2 A9:A1048576">
+  <conditionalFormatting sqref="A1:A2 A10:A1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
@@ -860,7 +877,7 @@
   <conditionalFormatting sqref="A5:A7">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A8:A9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/TestData.xlsx
+++ b/src/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\RC_Partial\RC-Batch-Partial-Regression\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83D31C-0DA9-4826-83D6-ACB4FE3C791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669EEA0-FBED-4279-BFD8-FFD5D9288548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>TDAF_HappyPath_Renewal</t>
+  </si>
+  <si>
+    <t>TDAF_HappyPath_Discharge</t>
+  </si>
+  <si>
+    <t>TDAF_Discharge.txt</t>
+  </si>
+  <si>
+    <t>TDAF Daily Input Discharge TXT File</t>
+  </si>
+  <si>
+    <t>TDAF_HappyPath_ChangeOfProvince</t>
+  </si>
+  <si>
+    <t>TDAF_ChangeOfProvince.txt</t>
+  </si>
+  <si>
+    <t>TDAF Daily Input Change of Province TXT File</t>
   </si>
 </sst>
 </file>
@@ -568,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,9 +881,61 @@
         <v>46</v>
       </c>
     </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A1:A2 A10:A1048576">
+  <conditionalFormatting sqref="A1:A2 A12:A1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
@@ -877,9 +947,10 @@
   <conditionalFormatting sqref="A5:A7">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
+  <conditionalFormatting sqref="A8:A11">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/data/TestData.xlsx
+++ b/src/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcharles\source\Repository\CDBatch_Migration\RC_Partial\RC-Batch-Partial-Regression\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669EEA0-FBED-4279-BFD8-FFD5D9288548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F23C95-44B6-4941-AA01-E214FDCB0D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>TDAF Daily Input Change of Province TXT File</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t>VW New Finance XIF Input File</t>
+  </si>
+  <si>
+    <t>VW_NF.XIF</t>
+  </si>
+  <si>
+    <t>VW Return File</t>
+  </si>
+  <si>
+    <t>VW_HappyPath_NF</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -586,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,21 +958,47 @@
         <v>56</v>
       </c>
     </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A1:A2 A12:A1048576">
+  <conditionalFormatting sqref="A1:A2 A13:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5:A7">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7">
+  <conditionalFormatting sqref="A8:A11">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A11">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
